--- a/data/trans_camb/P54_A_6_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_6_R-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>45,36</t>
+          <t>48,55</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>41,87</t>
+          <t>46,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>48,91</t>
+          <t>56,95</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>53,67</t>
+          <t>53,72</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>47,04</t>
+          <t>52,77</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>47,38</t>
+          <t>49,52</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,76; 60,72</t>
+          <t>24,92; 67,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,26; 57,93</t>
+          <t>22,97; 66,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>33,87; 61,82</t>
+          <t>36,86; 71,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>39,22; 66,35</t>
+          <t>36,0; 69,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>35,99; 56,77</t>
+          <t>37,34; 65,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>35,98; 58,0</t>
+          <t>33,84; 63,4</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>168,48%</t>
+          <t>292,93%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>155,53%</t>
+          <t>277,7%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>156,28%</t>
+          <t>204,82%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>171,47%</t>
+          <t>193,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>160,32%</t>
+          <t>228,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>161,48%</t>
+          <t>213,95%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>76,17; 354,04</t>
+          <t>84,1; 1023,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>56,66; 317,96</t>
+          <t>75,24; 978,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>83,75; 272,12</t>
+          <t>96,65; 419,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>93,09; 293,44</t>
+          <t>91,81; 423,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>99,55; 248,03</t>
+          <t>117,4; 443,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>98,11; 254,92</t>
+          <t>103,84; 433,34</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>45,2</t>
+          <t>46,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>41,76</t>
+          <t>44,51</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>33,01</t>
+          <t>34,79</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>32,28</t>
+          <t>28,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>39,04</t>
+          <t>40,89</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>36,87</t>
+          <t>36,63</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,5; 61,89</t>
+          <t>17,33; 67,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,3; 58,46</t>
+          <t>10,35; 64,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,35; 45,63</t>
+          <t>17,36; 50,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,74; 46,27</t>
+          <t>8,91; 45,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,32; 50,24</t>
+          <t>24,38; 55,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,08; 47,61</t>
+          <t>19,22; 52,28</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>156,77%</t>
+          <t>144,4%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>144,84%</t>
+          <t>138,06%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>72,93%</t>
+          <t>73,64%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>71,33%</t>
+          <t>59,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>104,99%</t>
+          <t>103,47%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>99,14%</t>
+          <t>92,68%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>30,26; 318,92</t>
+          <t>15,14; 388,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,83; 322,13</t>
+          <t>10,76; 354,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,14; 129,78</t>
+          <t>31,54; 146,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>36,24; 136,48</t>
+          <t>16,55; 131,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>54,35; 163,28</t>
+          <t>46,51; 197,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,2; 156,36</t>
+          <t>33,85; 177,69</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>26,59</t>
+          <t>49,06</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>34,35</t>
+          <t>38,19</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>39,8</t>
+          <t>41,89</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>42,56</t>
+          <t>42,65</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>33,52</t>
+          <t>44,77</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>38,7</t>
+          <t>40,96</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,07; 42,97</t>
+          <t>32,66; 64,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,38; 46,94</t>
+          <t>21,06; 55,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>28,2; 50,47</t>
+          <t>29,12; 54,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>31,96; 52,72</t>
+          <t>29,97; 53,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>21,8; 42,57</t>
+          <t>35,03; 54,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>30,45; 47,19</t>
+          <t>30,11; 50,38</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>62,73%</t>
+          <t>142,4%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>81,04%</t>
+          <t>110,87%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>97,14%</t>
+          <t>98,75%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>103,89%</t>
+          <t>100,55%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>80,5%</t>
+          <t>114,12%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>92,94%</t>
+          <t>104,4%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,39; 122,26</t>
+          <t>73,56; 274,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>40,43; 138,57</t>
+          <t>47,43; 236,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>59,91; 150,28</t>
+          <t>56,55; 159,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>67,05; 156,68</t>
+          <t>58,03; 164,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>46,63; 114,99</t>
+          <t>76,46; 167,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>65,48; 132,14</t>
+          <t>67,14; 157,7</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>37,25</t>
+          <t>40,94</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>37,88</t>
+          <t>35,44</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>40,46</t>
+          <t>34,07</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>45,46</t>
+          <t>44,01</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>39,0</t>
+          <t>37,28</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>42,14</t>
+          <t>40,1</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>24,12; 48,02</t>
+          <t>25,25; 53,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>25,24; 49,21</t>
+          <t>20,35; 49,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>30,6; 50,24</t>
+          <t>20,34; 46,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>35,28; 53,54</t>
+          <t>31,83; 54,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>31,1; 46,25</t>
+          <t>27,11; 46,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>34,84; 49,47</t>
+          <t>29,94; 48,69</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>105,1%</t>
+          <t>105,17%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>106,88%</t>
+          <t>91,04%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>101,46%</t>
+          <t>82,76%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>113,99%</t>
+          <t>106,89%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>102,98%</t>
+          <t>92,84%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>111,25%</t>
+          <t>99,86%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>55,79; 168,12</t>
+          <t>55,01; 179,49</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>59,75; 173,02</t>
+          <t>42,22; 168,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>67,89; 148,13</t>
+          <t>40,86; 136,49</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>76,21; 159,71</t>
+          <t>66,41; 166,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>74,23; 138,93</t>
+          <t>58,16; 135,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>82,21; 148,24</t>
+          <t>63,39; 144,18</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>40,36</t>
+          <t>54,81</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>33,1</t>
+          <t>36,76</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>44,47</t>
+          <t>41,56</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>49,7</t>
+          <t>49,07</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>42,47</t>
+          <t>49,54</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>41,17</t>
+          <t>42,18</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>24,12; 52,69</t>
+          <t>34,26; 68,42</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>15,81; 45,6</t>
+          <t>17,4; 52,42</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>33,4; 56,03</t>
+          <t>23,68; 57,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>38,26; 60,06</t>
+          <t>32,44; 64,32</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>33,53; 51,39</t>
+          <t>33,36; 60,16</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>30,71; 50,21</t>
+          <t>27,87; 54,18</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>124,35%</t>
+          <t>212,89%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>101,97%</t>
+          <t>142,78%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>101,89%</t>
+          <t>91,96%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>113,88%</t>
+          <t>108,59%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>112,66%</t>
+          <t>147,3%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>109,22%</t>
+          <t>125,39%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>61,23; 218,1</t>
+          <t>99,7; 405,96</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>43,34; 181,4</t>
+          <t>50,54; 286,61</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>63,17; 163,61</t>
+          <t>40,29; 173,68</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>71,67; 175,47</t>
+          <t>54,39; 204,27</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>77,55; 160,61</t>
+          <t>86,6; 227,69</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>72,13; 158,97</t>
+          <t>73,24; 201,81</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>45,82</t>
+          <t>53,42</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>35,94</t>
+          <t>42,73</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>37,74</t>
+          <t>36,59</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>44,89</t>
+          <t>39,59</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>41,36</t>
+          <t>44,59</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>40,91</t>
+          <t>41,46</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>30,83; 58,36</t>
+          <t>33,06; 69,31</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>22,21; 49,83</t>
+          <t>21,16; 60,99</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>18,53; 51,27</t>
+          <t>12,97; 53,7</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>28,54; 57,43</t>
+          <t>19,79; 58,8</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>29,41; 50,63</t>
+          <t>30,68; 58,91</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>29,76; 51,08</t>
+          <t>26,62; 54,49</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>113,78%</t>
+          <t>155,96%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>89,25%</t>
+          <t>124,75%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>87,53%</t>
+          <t>82,68%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>104,11%</t>
+          <t>89,45%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>99,06%</t>
+          <t>113,5%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>97,97%</t>
+          <t>105,54%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>61,03; 192,3</t>
+          <t>68,95; 332,84</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>44,47; 155,98</t>
+          <t>46,53; 282,28</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>33,6; 159,08</t>
+          <t>26,24; 182,47</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>50,85; 174,77</t>
+          <t>33,42; 203,09</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>58,19; 147,62</t>
+          <t>65,78; 211,41</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>59,04; 147,72</t>
+          <t>55,14; 184,95</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>38,96</t>
+          <t>48,29</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>37,14</t>
+          <t>39,77</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>40,63</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>44,53</t>
+          <t>42,72</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>39,84</t>
+          <t>44,27</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>40,96</t>
+          <t>41,3</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>31,62; 45,67</t>
+          <t>40,4; 56,07</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>30,35; 42,88</t>
+          <t>30,56; 47,38</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>34,92; 45,45</t>
+          <t>34,82; 46,56</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>39,92; 49,64</t>
+          <t>36,25; 48,29</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>35,14; 43,6</t>
+          <t>38,52; 48,74</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>37,11; 44,75</t>
+          <t>35,56; 45,83</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>111,99%</t>
+          <t>154,01%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>106,77%</t>
+          <t>126,84%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>99,92%</t>
+          <t>98,35%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>109,61%</t>
+          <t>103,41%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>105,3%</t>
+          <t>120,94%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>108,24%</t>
+          <t>112,82%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,39 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>82,35; 144,9</t>
+          <t>107,93; 215,15</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>79,23; 137,71</t>
+          <t>83,92; 179,8</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>79,49; 124,2</t>
+          <t>75,61; 124,6</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>89,7; 134,04</t>
+          <t>79,46; 131,3</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>87,4; 122,6</t>
+          <t>95,18; 145,8</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>91,4; 126,96</t>
+          <t>88,57; 137,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
